--- a/ConnectStats/sqlite/out/fields.xlsx
+++ b/ConnectStats/sqlite/out/fields.xlsx
@@ -7,12 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_fields_uom" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_fields_display" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_fields_order" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_activity_types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_category_order" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_fields_uom" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_fields_display" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_fields_order" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_activity_types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_category_order" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -350,24 +349,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2295,7 +2276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5547,7 +5528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8188,7 +8169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12669,7 +12650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ConnectStats/sqlite/out/fields.xlsx
+++ b/ConnectStats/sqlite/out/fields.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +426,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BeginTimestamp</t>
+          <t>BeginPowerTwentyMinutesDistance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -436,19 +436,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Europe/London</t>
+          <t>kilometer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Europe/London</t>
+          <t>mile</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DirectVO2Max</t>
+          <t>BeginPowerTwentyMinutesTime</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -458,19 +458,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ml/kg/min</t>
+          <t>second</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ml/kg/min</t>
+          <t>second</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EndLatitude</t>
+          <t>BeginPowerTwentyMinutesTimerTime</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -480,19 +480,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>second</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>second</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EndLongitude</t>
+          <t>BeginTimestamp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -502,19 +502,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>Europe/London</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>Europe/London</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EndTimestamp</t>
+          <t>DirectLactateThresholdHeartRate</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -524,19 +524,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Europe/London</t>
+          <t>bpm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Europe/London</t>
+          <t>bpm</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GainCorrectedElevation</t>
+          <t>DirectLactateThresholdSpeed</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -546,19 +546,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>centimetersPerMillisecond</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>centimetersPerMillisecond</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GainElevation</t>
+          <t>DirectVO2Max</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -568,19 +568,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>ml/kg/min</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>ml/kg/min</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GainUncorrectedElevation</t>
+          <t>DirectVO2MaxCycling</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -590,19 +590,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>ml/kg/min</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>ml/kg/min</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LossCorrectedElevation</t>
+          <t>EndLatitude</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,19 +612,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>dd</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>dd</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LossElevation</t>
+          <t>EndLongitude</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -634,19 +634,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>dd</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>dd</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LossUncorrectedElevation</t>
+          <t>EndPowerTwentyMinutesDistance</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -656,19 +656,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>kilometer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>mile</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MaxAirTemperature</t>
+          <t>EndPowerTwentyMinutesTime</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -678,19 +678,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>celcius</t>
+          <t>second</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>fahrenheit</t>
+          <t>second</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MaxBikeCadence</t>
+          <t>EndPowerTwentyMinutesTimerTime</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -700,19 +700,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>rpm</t>
+          <t>second</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rpm</t>
+          <t>second</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MaxCorrectedElevation</t>
+          <t>EndTimestamp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -722,19 +722,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>Europe/London</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>Europe/London</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MaxDoubleCadence</t>
+          <t>GainCorrectedElevation</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -744,19 +744,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>stepsPerMinute</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>stepsPerMinute</t>
+          <t>foot</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MaxElevation</t>
+          <t>GainElevation</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -778,7 +778,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MaxFractionalCadence</t>
+          <t>GainUncorrectedElevation</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -788,19 +788,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>rpm</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rpm</t>
+          <t>foot</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MaxHeartRate</t>
+          <t>LossCorrectedElevation</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -810,19 +810,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>bpm</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>bpm</t>
+          <t>foot</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MaxPace</t>
+          <t>LossElevation</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -832,63 +832,63 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>minperkm</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>minpermile</t>
+          <t>foot</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MaxPace</t>
+          <t>LossUncorrectedElevation</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>swimming</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>min100m</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>min100m</t>
+          <t>foot</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MaxRunCadence</t>
+          <t>MaxAirPower</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>stepsPerMinute</t>
+          <t>watt</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>stepsPerMinute</t>
+          <t>watt</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MaxSpeed</t>
+          <t>MaxAirTemperature</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -898,41 +898,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>kph</t>
+          <t>celcius</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>mph</t>
+          <t>fahrenheit</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MaxSpeed</t>
+          <t>MaxBikeCadence</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>swimming</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>hmph</t>
+          <t>rpm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>hmph</t>
+          <t>rpm</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MaxSwimCadence</t>
+          <t>MaxCorrectedElevation</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -942,19 +942,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>strokesPerMinute</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>strokesPerMinute</t>
+          <t>foot</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MaxUncorrectedElevation</t>
+          <t>MaxDoubleCadence</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -964,19 +964,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>stepsPerMinute</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>stepsPerMinute</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MinAirTemperature</t>
+          <t>MaxElevation</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -986,41 +986,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>celcius</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>fahrenheit</t>
+          <t>foot</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MinBikeCadence</t>
+          <t>MaxFormPower</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>rpm</t>
+          <t>watt</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rpm</t>
+          <t>watt</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MinCorrectedElevation</t>
+          <t>MaxFractionalCadence</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1030,41 +1030,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>rpm</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>rpm</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MinEfficiency</t>
+          <t>MaxGroundContactBalanceLeft</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>percent</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>percent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MinElevation</t>
+          <t>MaxHeartRate</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1074,41 +1074,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>bpm</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>bpm</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MinHeartRate</t>
+          <t>MaxLegSpringStiffness</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>bpm</t>
+          <t>kN/m</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>bpm</t>
+          <t>kN/m</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MinPace</t>
+          <t>MaxPace</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1130,73 +1130,73 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MinRunCadence</t>
+          <t>MaxPace</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>swimming</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>stepsPerMinute</t>
+          <t>min100m</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>stepsPerMinute</t>
+          <t>min100m</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MinSpeed</t>
+          <t>MaxPower</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>kph</t>
+          <t>watt</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>mph</t>
+          <t>watt</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MinStrokes</t>
+          <t>MaxPowerTwentyMinutes</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>cycling</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>watt</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>watt</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MinSwolf</t>
+          <t>MaxRunCadence</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>stepsPerMinute</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>stepsPerMinute</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MinUncorrectedElevation</t>
+          <t>MaxSpeed</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1228,63 +1228,63 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>kph</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>mph</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SumDistance</t>
+          <t>MaxSpeed</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>swimming</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>kilometer</t>
+          <t>hmph</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>mile</t>
+          <t>hmph</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SumDistance</t>
+          <t>MaxStrokeCadence</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>swimming</t>
+          <t>fitness_equipment</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>strokesPerMinute</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>yard</t>
+          <t>strokesPerMinute</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SumDuration</t>
+          <t>MaxSwimCadence</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1294,19 +1294,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>strokesPerMinute</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>strokesPerMinute</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SumElapsedDuration</t>
+          <t>MaxUncorrectedElevation</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1316,63 +1316,63 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>foot</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SumEnergy</t>
+          <t>MaxVerticalRatio</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>kilocalorie</t>
+          <t>percent</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>kilocalorie</t>
+          <t>percent</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SumMovingDuration</t>
+          <t>MinAirPower</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>watt</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>watt</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SumNumActiveLengths</t>
+          <t>MinAirTemperature</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1382,19 +1382,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>celcius</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>fahrenheit</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SumNumLengths</t>
+          <t>MinBikeCadence</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1404,19 +1404,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>rpm</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>rpm</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SumPoolLength</t>
+          <t>MinCorrectedElevation</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1431,14 +1431,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>yard</t>
+          <t>foot</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SumSampleCountDistance</t>
+          <t>MinEfficiency</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1448,19 +1448,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>dimensionless</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>dimensionless</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SumSampleCountDoubleCadence</t>
+          <t>MinElevation</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1470,63 +1470,63 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>foot</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SumSampleCountDuration</t>
+          <t>MinFormPower</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>watt</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>watt</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SumSampleCountElapsedDuration</t>
+          <t>MinGroundContactBalanceLeft</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>percent</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>percent</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SumSampleCountElevation</t>
+          <t>MinHeartRate</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1536,41 +1536,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>bpm</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>bpm</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SumSampleCountFractionalCadence</t>
+          <t>MinLegSpringStiffness</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>kN/m</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>kN/m</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SumSampleCountHeartRate</t>
+          <t>MinPace</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1580,41 +1580,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>minperkm</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>minpermile</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SumSampleCountLatitude</t>
+          <t>MinPower</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>watt</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>watt</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SumSampleCountLongitude</t>
+          <t>MinRunCadence</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1624,19 +1624,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>stepsPerMinute</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>stepsPerMinute</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SumSampleCountMovingDuration</t>
+          <t>MinSpeed</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1646,19 +1646,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>kph</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>mph</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SumSampleCountMovingSpeed</t>
+          <t>MinStrokes</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1668,19 +1668,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>dimensionless</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>dimensionless</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SumSampleCountRunCadence</t>
+          <t>MinSwolf</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1690,19 +1690,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>dimensionless</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>dimensionless</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SumSampleCountSpeed</t>
+          <t>MinUncorrectedElevation</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1712,41 +1712,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>foot</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SumSampleCountTimestamp</t>
+          <t>MinVerticalRatio</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>percent</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>sampleCount</t>
+          <t>percent</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SumStep</t>
+          <t>SumDistance</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1756,41 +1756,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>step</t>
+          <t>kilometer</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>step</t>
+          <t>mile</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SumStrokes</t>
+          <t>SumDistance</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>swimming</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>yard</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SumTrainingEffect</t>
+          <t>SumDuration</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1800,19 +1800,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>second</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>second</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>WeightedMeanAirTemperature</t>
+          <t>SumElapsedDuration</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>celcius</t>
+          <t>second</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>fahrenheit</t>
+          <t>second</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>WeightedMeanBikeCadence</t>
+          <t>SumEnergy</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1844,41 +1844,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>rpm</t>
+          <t>kilocalorie</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>rpm</t>
+          <t>kilocalorie</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>WeightedMeanDoubleCadence</t>
+          <t>SumIntensityFactor</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>cycling</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>stepsPerMinute</t>
+          <t>if</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>stepsPerMinute</t>
+          <t>if</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>WeightedMeanEfficiency</t>
+          <t>SumMovingDuration</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1888,19 +1888,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>second</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>second</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>WeightedMeanFractionalCadence</t>
+          <t>SumNumActiveLengths</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1910,19 +1910,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>rpm</t>
+          <t>dimensionless</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rpm</t>
+          <t>dimensionless</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WeightedMeanGroundContactTime</t>
+          <t>SumNumLengths</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1932,19 +1932,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ms</t>
+          <t>dimensionless</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ms</t>
+          <t>dimensionless</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>WeightedMeanHeartRate</t>
+          <t>SumPoolLength</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1954,19 +1954,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>bpm</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>bpm</t>
+          <t>yard</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WeightedMeanMovingPace</t>
+          <t>SumSampleCountDistance</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1976,41 +1976,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>minperkm</t>
+          <t>sampleCount</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>minpermile</t>
+          <t>sampleCount</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>WeightedMeanMovingPace</t>
+          <t>SumSampleCountDoubleCadence</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>swimming</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>min100m</t>
+          <t>sampleCount</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>min100m</t>
+          <t>sampleCount</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>WeightedMeanMovingSpeed</t>
+          <t>SumSampleCountDuration</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2020,41 +2020,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>kph</t>
+          <t>sampleCount</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>mph</t>
+          <t>sampleCount</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WeightedMeanMovingSpeed</t>
+          <t>SumSampleCountElapsedDuration</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>swimming</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>hmph</t>
+          <t>sampleCount</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>hmph</t>
+          <t>sampleCount</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WeightedMeanPace</t>
+          <t>SumSampleCountElevation</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2064,41 +2064,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>minperkm</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>minpermile</t>
+          <t>foot</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WeightedMeanPace</t>
+          <t>SumSampleCountFractionalCadence</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>swimming</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>min100m</t>
+          <t>sampleCount</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>min100m</t>
+          <t>sampleCount</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WeightedMeanRunCadence</t>
+          <t>SumSampleCountHeartRate</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2108,19 +2108,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>stepsPerMinute</t>
+          <t>sampleCount</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>stepsPerMinute</t>
+          <t>sampleCount</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WeightedMeanSpeed</t>
+          <t>SumSampleCountLatitude</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2130,41 +2130,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>kph</t>
+          <t>sampleCount</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>mph</t>
+          <t>sampleCount</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WeightedMeanSpeed</t>
+          <t>SumSampleCountLongitude</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>swimming</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>hmph</t>
+          <t>sampleCount</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>hmph</t>
+          <t>sampleCount</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>WeightedMeanStrideLength</t>
+          <t>SumSampleCountMovingDuration</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2174,19 +2174,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>sampleCount</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>yard</t>
+          <t>sampleCount</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WeightedMeanStrokes</t>
+          <t>SumSampleCountMovingSpeed</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2196,19 +2196,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>sampleCount</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>sampleCount</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WeightedMeanSwimCadence</t>
+          <t>SumSampleCountRunCadence</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2218,19 +2218,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>strokesPerMinute</t>
+          <t>sampleCount</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>strokesPerMinute</t>
+          <t>sampleCount</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WeightedMeanSwolf</t>
+          <t>SumSampleCountSpeed</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2240,34 +2240,958 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>sampleCount</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>sampleCount</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>SumSampleCountTimestamp</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>sampleCount</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>sampleCount</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SumStep</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SumStrokes</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SumTotalWork</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cycling</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>kilojoule</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>kilojoule</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SumTrainingEffect</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>te</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>te</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SumTrainingStressScore</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cycling</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ThresholdPower</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cycling</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>watt</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>watt</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>WeightedMeanAirPower</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>watt</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>watt</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>WeightedMeanAirTemperature</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>celcius</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>fahrenheit</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>WeightedMeanBikeCadence</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>rpm</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>rpm</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>WeightedMeanDoubleCadence</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>stepsPerMinute</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>stepsPerMinute</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>WeightedMeanEfficiency</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>WeightedMeanElevation</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>foot</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>WeightedMeanFormPower</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>watt</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>watt</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>WeightedMeanFractionalCadence</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>rpm</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>rpm</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>WeightedMeanGroundContactBalanceLeft</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>WeightedMeanGroundContactTime</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>WeightedMeanHeartRate</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>bpm</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>bpm</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>WeightedMeanLeftPedalSmoothness</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>cycling</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>WeightedMeanLeftTorqueEffectiveness</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>cycling</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>WeightedMeanLegSpringStiffness</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>kN/m</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>kN/m</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>WeightedMeanMovingPace</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>minperkm</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>minpermile</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>WeightedMeanMovingPace</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>swimming</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>min100m</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>min100m</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>WeightedMeanMovingSpeed</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>kph</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>mph</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>WeightedMeanMovingSpeed</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>swimming</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>hmph</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>hmph</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>WeightedMeanNormalizedPower</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>cycling</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>watt</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>watt</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>WeightedMeanPace</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>minperkm</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>minpermile</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>WeightedMeanPace</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>swimming</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>min100m</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>min100m</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>WeightedMeanPower</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>watt</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>watt</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>WeightedMeanRightBalance</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>cycling</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>WeightedMeanRunCadence</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>stepsPerMinute</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>stepsPerMinute</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>WeightedMeanSpeed</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>kph</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>mph</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>WeightedMeanSpeed</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>swimming</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>hmph</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>hmph</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>WeightedMeanStrideLength</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>yard</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>WeightedMeanStrokeCadence</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>strokesPerMinute</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>strokesPerMinute</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>WeightedMeanStrokeDistance</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>yard</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>WeightedMeanStrokes</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>WeightedMeanSwimCadence</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>strokesPerMinute</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>strokesPerMinute</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>WeightedMeanSwolf</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
           <t>WeightedMeanVerticalOscillation</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>all</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>centimeter</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>centimeter</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>WeightedMeanVerticalRatio</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>WeightedMomentaryEnergyExpenditure</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>c/Hr</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>c/Hr</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>WeightedRelativeRunningEconomy</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
         </is>
       </c>
     </row>
@@ -2282,7 +3206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2387,6 +3311,11 @@
           <t>BeginPowerTwentyMinutesDistance</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Begin 20min Distance</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2394,6 +3323,11 @@
           <t>BeginPowerTwentyMinutesTime</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Begin 20min Time</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2401,6 +3335,11 @@
           <t>BeginPowerTwentyMinutesTimerTime</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Begin 20min Timer</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2415,6 +3354,11 @@
           <t>DirectLactateThresholdHeartRate</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lactate Threshold</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2422,6 +3366,11 @@
           <t>DirectLactateThresholdSpeed</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lactate Threshold Speed</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2429,6 +3378,11 @@
           <t>DirectVO2Max</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>VO2 Max</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2436,6 +3390,11 @@
           <t>DirectVO2MaxCycling</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VO2 Max</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2457,6 +3416,11 @@
           <t>EndPowerTwentyMinutesDistance</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>End 20min Distance</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2464,6 +3428,11 @@
           <t>EndPowerTwentyMinutesTime</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>End 20min Time</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2471,6 +3440,11 @@
           <t>EndPowerTwentyMinutesTimerTime</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>End 20min Timer</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2635,6 +3609,11 @@
           <t>MaxAirPower</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Max Air Power</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2837,6 +3816,11 @@
           <t>MaxFormPower</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Max Form Power</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2891,6 +3875,11 @@
           <t>MaxGroundContactBalanceLeft</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Max Contact Balance Left</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2952,6 +3941,11 @@
           <t>MaxLegSpringStiffness</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Max Leg Spring</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3013,6 +4007,11 @@
           <t>MaxPower</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Max Power</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3020,6 +4019,11 @@
           <t>MaxPowerTwentyMinutes</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Max Avg Power (20 min)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3125,835 +4129,845 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MaxSwimCadence</t>
+          <t>MaxStrokeCadence</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Max Swim Cadence</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Cadence de nage maximale</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Maximale Schwimmfrequenz</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Cadenza massima</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Cadencia de nado máxima</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Máximo de cadência de natação</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>最大水泳ケイデンス</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>最大划频</t>
+          <t>Max Cadence</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MaxUncorrectedElevation</t>
+          <t>MaxSwimCadence</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Max Swim Cadence</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Cadence de nage maximale</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Maximale Schwimmfrequenz</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Cadenza massima</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Cadencia de nado máxima</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Máximo de cadência de natação</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>最大水泳ケイデンス</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>最大划频</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MaxVerticalOscillation</t>
+          <t>MaxUncorrectedElevation</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MaxVerticalRatio</t>
+          <t>MaxVerticalOscillation</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MaxVerticalSpeed</t>
+          <t>MaxVerticalRatio</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Max Vertical Ratio</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MinAirPower</t>
+          <t>MaxVerticalSpeed</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MinAirTemperature</t>
+          <t>MinAirPower</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Min Temperature</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Température min.</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Min. Temperatur</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Temperatura min</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Temperatura mínima</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Temperatura Mín.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>毎分気温</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>最低温度</t>
+          <t>Min Air Power</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MinBikeCadence</t>
+          <t>MinAirTemperature</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Min Temperature</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Température min.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Min. Temperatur</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Temperatura min</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Temperatura mínima</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Temperatura Mín.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>毎分気温</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>最低温度</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MinCorrectedElevation</t>
+          <t>MinBikeCadence</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MinEfficiency</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Best Efficiency</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Meilleure efficacité</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Beste Effizienz</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Efficienza migliore</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Mejor eficacia</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Melhor eficiência</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>最高効率</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>最佳效率</t>
+          <t>MinCorrectedElevation</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MinElevation</t>
+          <t>MinEfficiency</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Min Elevation</t>
+          <t>Best Efficiency</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Altitude min.</t>
+          <t>Meilleure efficacité</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Min. Höhe</t>
+          <t>Beste Effizienz</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Quota min</t>
+          <t>Efficienza migliore</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Altura mínima</t>
+          <t>Mejor eficacia</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Elevação mín.</t>
+          <t>Melhor eficiência</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>最低高度</t>
+          <t>最高効率</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>最低海拔</t>
+          <t>最佳效率</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MinFormPower</t>
+          <t>MinElevation</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Min Elevation</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Altitude min.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Min. Höhe</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Quota min</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Altura mínima</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Elevação mín.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>最低高度</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>最低海拔</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MinGroundContactBalanceLeft</t>
+          <t>MinFormPower</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Min Form Power</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MinGroundContactTime</t>
+          <t>MinGroundContactBalanceLeft</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Min Contact Balance Left</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MinHeartRate</t>
+          <t>MinGroundContactTime</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MinLegSpringStiffness</t>
+          <t>MinHeartRate</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Min HR</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MinMomentaryEnergyExpenditure</t>
+          <t>MinLegSpringStiffness</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Min Leg Spring</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MinPace</t>
+          <t>MinMomentaryEnergyExpenditure</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MinPower</t>
+          <t>MinPace</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MinRelativeRunningEconomy</t>
+          <t>MinPower</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Min Power</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MinRunCadence</t>
+          <t>MinRelativeRunningEconomy</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MinSpeed</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Min Speed</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Vitesse min.</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Min. Geschwindigkeit</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Velocità min</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Velocidad mínima</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Veloc. mín.</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>最低スピード</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>最低速度</t>
+          <t>MinRunCadence</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MinStrokes</t>
+          <t>MinSpeed</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Min Strokes</t>
+          <t>Min Speed</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nombre minimum de mouvements</t>
+          <t>Vitesse min.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mindestanzahl von Zügen</t>
+          <t>Min. Geschwindigkeit</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Bracciate minime</t>
+          <t>Velocità min</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Brazadas mínimas</t>
+          <t>Velocidad mínima</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Mínimo de braçadas</t>
+          <t>Veloc. mín.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>最小ストローク数</t>
+          <t>最低スピード</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>最少划数</t>
+          <t>最低速度</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MinSwolf</t>
+          <t>MinStrokes</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Best SWOLF</t>
+          <t>Min Strokes</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Meilleur SWOLF</t>
+          <t>Nombre minimum de mouvements</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Bester SWOLF-Wert</t>
+          <t>Mindestanzahl von Zügen</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SWOLF migliore</t>
+          <t>Bracciate minime</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mejor SWOLF</t>
+          <t>Brazadas mínimas</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Melhor pontuação SWOLF</t>
+          <t>Mínimo de braçadas</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>最高SWOLF</t>
+          <t>最小ストローク数</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>最佳 SWOLF</t>
+          <t>最少划数</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MinUncorrectedElevation</t>
+          <t>MinSwolf</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Best SWOLF</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Meilleur SWOLF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Bester SWOLF-Wert</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>SWOLF migliore</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Mejor SWOLF</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Melhor pontuação SWOLF</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>最高SWOLF</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>最佳 SWOLF</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MinVerticalOscillation</t>
+          <t>MinUncorrectedElevation</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MinVerticalRatio</t>
+          <t>MinVerticalOscillation</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SumAnaerobicTrainingEffect</t>
+          <t>MinVerticalRatio</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Min Vertical Ratio</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SumDistance</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Distanz</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Distanza</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Distancia</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Distância</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>距離</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>距离</t>
+          <t>SumAnaerobicTrainingEffect</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SumDistanceLightlyActive</t>
+          <t>SumDistance</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Distanz</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Distanza</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Distancia</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Distância</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>距離</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>距离</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SumDistanceModeratelyActive</t>
+          <t>SumDistanceLightlyActive</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SumDistanceVeryActive</t>
+          <t>SumDistanceModeratelyActive</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SumDuration</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Temps</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Zeit</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Ora</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Tiempo</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Tempo</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>タイム</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>时间</t>
+          <t>SumDistanceVeryActive</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SumDurationLightlyActive</t>
+          <t>SumDuration</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Temps</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Zeit</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Ora</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Tiempo</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Tempo</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>タイム</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>时间</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SumDurationModeratelyActive</t>
+          <t>SumDurationLightlyActive</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SumDurationVeryActive</t>
+          <t>SumDurationModeratelyActive</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SumElapsedDuration</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Elapsed Time</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Elapsed Time</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Elapsed Time</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Tempo trascorso</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Elapsed Time</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Elapsed Time</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>経過時間</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>经过时间</t>
+          <t>SumDurationVeryActive</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SumEnergy</t>
+          <t>SumElapsedDuration</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Calories</t>
+          <t>Elapsed Time</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Calories</t>
+          <t>Elapsed Time</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Kalorien</t>
+          <t>Elapsed Time</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Calorie</t>
+          <t>Tempo trascorso</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Calorías</t>
+          <t>Elapsed Time</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Calorias</t>
+          <t>Elapsed Time</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>カロリー</t>
+          <t>経過時間</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>卡路里</t>
+          <t>经过时间</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SumEnergyActive</t>
+          <t>SumEnergy</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Calories</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Calories</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Kalorien</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Calorie</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Calorías</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Calorias</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>カロリー</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>卡路里</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SumFloorsClimbed</t>
+          <t>SumEnergyActive</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SumFloorsDescended</t>
+          <t>SumFloorsClimbed</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SumIntensityFactor</t>
+          <t>SumFloorsDescended</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SumMovingDuration</t>
+          <t>SumIntensityFactor</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Moving Time</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Tps déplac.</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Zeit in Bewegung</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Tempo in movim.</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Tiempo en movimiento</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Tempo Movimt.</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>移動時間</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>移动时间</t>
+          <t>Intensity Factor (IF)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SumNumActiveLengths</t>
+          <t>SumMovingDuration</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Number of Lengths</t>
+          <t>Moving Time</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nombre de longueurs</t>
+          <t>Tps déplac.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Anzahl der Bahnen</t>
+          <t>Zeit in Bewegung</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Numero di vasche</t>
+          <t>Tempo in movim.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Número de largos</t>
+          <t>Tiempo en movimiento</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Número de piscinas</t>
+          <t>Tempo Movimt.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>ラップ数（片道）</t>
+          <t>移動時間</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>趟数</t>
+          <t>移动时间</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SumNumLengths</t>
+          <t>SumNumActiveLengths</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4000,1524 +5014,1696 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SumPoolLength</t>
+          <t>SumNumLengths</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Pool Length</t>
+          <t>Number of Lengths</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Longueur de la piscine</t>
+          <t>Nombre de longueurs</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Schwimmbadlänge</t>
+          <t>Anzahl der Bahnen</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Lunghezza piscina</t>
+          <t>Numero di vasche</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Largo de piscina</t>
+          <t>Número de largos</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Comprimento da piscina</t>
+          <t>Número de piscinas</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>プールの長さ</t>
+          <t>ラップ数（片道）</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>泳池长度</t>
+          <t>趟数</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SumSampleCountDistance</t>
+          <t>SumPoolLength</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Pool Length</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Longueur de la piscine</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Schwimmbadlänge</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Lunghezza piscina</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Largo de piscina</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Comprimento da piscina</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>プールの長さ</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>泳池长度</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SumSampleCountDoubleCadence</t>
+          <t>SumSampleCountDistance</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SumSampleCountDuration</t>
+          <t>SumSampleCountDoubleCadence</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SumSampleCountElapsedDuration</t>
+          <t>SumSampleCountDuration</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SumSampleCountElevation</t>
+          <t>SumSampleCountElapsedDuration</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SumSampleCountFractionalCadence</t>
+          <t>SumSampleCountElevation</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SumSampleCountHeartRate</t>
+          <t>SumSampleCountFractionalCadence</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SumSampleCountLatitude</t>
+          <t>SumSampleCountHeartRate</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SumSampleCountLongitude</t>
+          <t>SumSampleCountLatitude</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SumSampleCountMovingDuration</t>
+          <t>SumSampleCountLongitude</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SumSampleCountMovingSpeed</t>
+          <t>SumSampleCountMovingDuration</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SumSampleCountRunCadence</t>
+          <t>SumSampleCountMovingSpeed</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SumSampleCountSpeed</t>
+          <t>SumSampleCountRunCadence</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SumSampleCountTimestamp</t>
+          <t>SumSampleCountSpeed</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SumStep</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Steps</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Pas</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Schritte</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Fasi</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Pasos</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Passos</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>ステップ</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>步伐</t>
+          <t>SumSampleCountTimestamp</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SumStrokes</t>
+          <t>SumStep</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Total Strokes</t>
+          <t>Steps</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Nombre total de mouvements</t>
+          <t>Pas</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Züge insgesamt</t>
+          <t>Schritte</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Totale bracciate</t>
+          <t>Fasi</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Brazadas totales</t>
+          <t>Pasos</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Total de braçadas</t>
+          <t>Passos</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>合計ストローク数</t>
+          <t>ステップ</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>总划数</t>
+          <t>步伐</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SumTotalWork</t>
+          <t>SumStrokes</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Total Strokes</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Nombre total de mouvements</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Züge insgesamt</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Totale bracciate</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Brazadas totales</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Total de braçadas</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>合計ストローク数</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>总划数</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SumTrainingEffect</t>
+          <t>SumTotalWork</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Training Effect</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Training Effect</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Training Effect</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Training Effect</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Training Effect</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Training Effect</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>トレーニング効果</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>训练成效</t>
+          <t>Work</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SumTrainingStressScore</t>
+          <t>SumTrainingEffect</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Training Effect</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Training Effect</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Training Effect</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Training Effect</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Training Effect</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Training Effect</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>トレーニング効果</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>训练成效</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ThresholdPower</t>
+          <t>SumTrainingStressScore</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Training Stress Score (TSS)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>WeightedMeanAirPower</t>
+          <t>ThresholdPower</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Threshold Power</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>WeightedMeanAirTemperature</t>
+          <t>WeightedMeanAirPower</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Avg Temperature</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Température moy.</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Ø Temperatur</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Temperatura med</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Temperatura media</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Temperatura Méd.</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>平均気温</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>平均温度</t>
+          <t>Avg Air Power</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>WeightedMeanBikeCadence</t>
+          <t>WeightedMeanAirTemperature</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Avg Bike Cadence</t>
+          <t>Avg Temperature</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Cadence de vélo moy.</t>
+          <t>Température moy.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Ø Trittfrequenz (Fahrrad)</t>
+          <t>Ø Temperatur</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Cadenza pedalata media</t>
+          <t>Temperatura med</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Cadencia de pedaleo media</t>
+          <t>Temperatura media</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Cadência média de bicicleta</t>
+          <t>Temperatura Méd.</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>平均バイクケイデンス</t>
+          <t>平均気温</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>平均自行车踏频</t>
+          <t>平均温度</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>WeightedMeanDoubleCadence</t>
+          <t>WeightedMeanBikeCadence</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Avg Run Cadence</t>
+          <t>Avg Bike Cadence</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Avg Run Cadence</t>
+          <t>Cadence de vélo moy.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Avg Run Cadence</t>
+          <t>Ø Trittfrequenz (Fahrrad)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Avg Run Cadence</t>
+          <t>Cadenza pedalata media</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Avg Run Cadence</t>
+          <t>Cadencia de pedaleo media</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Avg Run Cadence</t>
+          <t>Cadência média de bicicleta</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>平均ランケイデンス</t>
+          <t>平均バイクケイデンス</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>平均跑步踏频</t>
+          <t>平均自行车踏频</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>WeightedMeanEfficiency</t>
+          <t>WeightedMeanDoubleCadence</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Avg Efficiency</t>
+          <t>Avg Run Cadence</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Efficacité moyenne</t>
+          <t>Avg Run Cadence</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Durchschnittliche Effizienz</t>
+          <t>Avg Run Cadence</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Efficienza media</t>
+          <t>Avg Run Cadence</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Eficacia media</t>
+          <t>Avg Run Cadence</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Média de eficiência</t>
+          <t>Avg Run Cadence</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>平均効率</t>
+          <t>平均ランケイデンス</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>平均效率</t>
+          <t>平均跑步踏频</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>WeightedMeanFormPower</t>
+          <t>WeightedMeanEfficiency</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Avg Efficiency</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Efficacité moyenne</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Durchschnittliche Effizienz</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Efficienza media</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Eficacia media</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Média de eficiência</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>平均効率</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>平均效率</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>WeightedMeanFractionalCadence</t>
+          <t>WeightedMeanElevation</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Avg Run Cadence</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Avg Run Cadence</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Avg Run Cadence</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Avg Run Cadence</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Avg Run Cadence</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Avg Run Cadence</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>平均ランケイデンス</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>平均跑步踏频</t>
+          <t>Avg Elevation</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>WeightedMeanGroundContactBalanceLeft</t>
+          <t>WeightedMeanFormPower</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Avg Form Power</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>WeightedMeanGroundContactTime</t>
+          <t>WeightedMeanFractionalCadence</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Avg Ground Contact Time</t>
+          <t>Avg Run Cadence</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Avg Ground Contact Time</t>
+          <t>Avg Run Cadence</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Avg Ground Contact Time</t>
+          <t>Avg Run Cadence</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Avg Ground Contact Time</t>
+          <t>Avg Run Cadence</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Avg Ground Contact Time</t>
+          <t>Avg Run Cadence</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Avg Ground Contact Time</t>
+          <t>Avg Run Cadence</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>平均地面接地時間</t>
+          <t>平均ランケイデンス</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>平均触地时间</t>
+          <t>平均跑步踏频</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>WeightedMeanHeartRate</t>
+          <t>WeightedMeanGroundContactBalanceLeft</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Avg HR</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>FC moy.</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Ø HF</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>FC Media</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>FC media</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>RC méd.</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>平均心拍</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>平均心率</t>
+          <t>Ground Contact Balance Left</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>WeightedMeanLeftBalance</t>
+          <t>WeightedMeanGroundContactTime</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Avg Ground Contact Time</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Avg Ground Contact Time</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Avg Ground Contact Time</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Avg Ground Contact Time</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Avg Ground Contact Time</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Avg Ground Contact Time</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>平均地面接地時間</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>平均触地时间</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>WeightedMeanLeftPedalSmoothness</t>
+          <t>WeightedMeanHeartRate</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Avg HR</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>FC moy.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Ø HF</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>FC Media</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>FC media</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>RC méd.</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>平均心拍</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>平均心率</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>WeightedMeanLeftTorqueEffectiveness</t>
+          <t>WeightedMeanLeftBalance</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>WeightedMeanLegSpringStiffness</t>
+          <t>WeightedMeanLeftPedalSmoothness</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Pedal Smoothness Left (%)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>WeightedMeanMomentaryEnergyExpenditure</t>
+          <t>WeightedMeanLeftTorqueEffectiveness</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Torque Effectiveness Left (%)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>WeightedMeanMovingPace</t>
+          <t>WeightedMeanLegSpringStiffness</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Avg Moving Pace</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Avg Moving Pace</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Avg Moving Pace</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Avg Moving Pace</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Avg Moving Pace</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Avg Moving Pace</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>平均移動ペース</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>平均移动配速</t>
+          <t>Leg Spring</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>WeightedMeanMovingSpeed</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Avg Moving Speed</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Avg Moving Speed</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Avg Moving Speed</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Velocità media in movim.</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Avg Moving Speed</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Avg Moving Speed</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>平均移動速度</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>平均移动速度</t>
+          <t>WeightedMeanMomentaryEnergyExpenditure</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>WeightedMeanNormalizedPower</t>
+          <t>WeightedMeanMovingPace</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Avg Moving Pace</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Avg Moving Pace</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Avg Moving Pace</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Avg Moving Pace</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Avg Moving Pace</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Avg Moving Pace</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>平均移動ペース</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>平均移动配速</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>WeightedMeanPace</t>
+          <t>WeightedMeanMovingSpeed</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Avg Pace</t>
+          <t>Avg Moving Speed</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Allure moy.</t>
+          <t>Avg Moving Speed</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Ø Pace</t>
+          <t>Avg Moving Speed</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Passo medio</t>
+          <t>Velocità media in movim.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Ritmo medio</t>
+          <t>Avg Moving Speed</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Ritmo médio</t>
+          <t>Avg Moving Speed</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>平均ペース</t>
+          <t>平均移動速度</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>平均配速</t>
+          <t>平均移动速度</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>WeightedMeanPower</t>
+          <t>WeightedMeanNormalizedPower</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Normalized Power (NP)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>WeightedMeanRelativeRunningEconomy</t>
+          <t>WeightedMeanPace</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Avg Pace</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Allure moy.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Ø Pace</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Passo medio</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Ritmo medio</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Ritmo médio</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>平均ペース</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>平均配速</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>WeightedMeanRightBalance</t>
+          <t>WeightedMeanPower</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Avg Power</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>WeightedMeanRunCadence</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Avg Run Cadence</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Cadence de course moy.</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Ø Schrittfrequenz (Laufen)</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Cadenza di corsa media</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Cadencia de carrera media</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Cadência média de corrida</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>平均ランケイデンス</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>平均跑步踏频</t>
+          <t>WeightedMeanRelativeRunningEconomy</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>WeightedMeanSpeed</t>
+          <t>WeightedMeanRightBalance</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Avg Speed</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Vitesse moy.</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Ø Geschw</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Velocità media</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Velocidad media</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Veloc. Média</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>平均スピード</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>平均速度</t>
+          <t>Balance Right (%)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>WeightedMeanStanceTime</t>
+          <t>WeightedMeanRunCadence</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Avg Run Cadence</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Cadence de course moy.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Ø Schrittfrequenz (Laufen)</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Cadenza di corsa media</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Cadencia de carrera media</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Cadência média de corrida</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>平均ランケイデンス</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>平均跑步踏频</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>WeightedMeanStanceTimePercent</t>
+          <t>WeightedMeanSpeed</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Avg Speed</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Vitesse moy.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Ø Geschw</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Velocità media</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Velocidad media</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Veloc. Média</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>平均スピード</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>平均速度</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>WeightedMeanStrideLength</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Avg Stride Length</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Avg Stride Length</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Avg Stride Length</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Avg Stride Length</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Avg Stride Length</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Avg Stride Length</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>平均歩幅</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>平均步幅</t>
+          <t>WeightedMeanStanceTime</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>WeightedMeanStrokes</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Avg Strokes</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Nombre moyen de mouvements</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Durchschnittliche Anzahl von Zügen</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Bracciate medie</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Promedio brazadas</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Média de braçadas</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>平均ストローク数</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>平均划数</t>
+          <t>WeightedMeanStanceTimePercent</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>WeightedMeanSwimCadence</t>
+          <t>WeightedMeanStrideLength</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Avg Swim Cadence</t>
+          <t>Avg Stride Length</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Cadence de nage moyenne</t>
+          <t>Avg Stride Length</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Durchschnittliche Schwimmfrequenz</t>
+          <t>Avg Stride Length</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Cadenza media</t>
+          <t>Avg Stride Length</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Cadencia de nado media</t>
+          <t>Avg Stride Length</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Média de cadência de natação</t>
+          <t>Avg Stride Length</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>平均水泳ケイデンス</t>
+          <t>平均歩幅</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>平均划频</t>
+          <t>平均步幅</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>WeightedMeanSwolf</t>
+          <t>WeightedMeanStrokeCadence</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Avg SWOLF</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>SWOLF moyen</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Durchschnittlicher SWOLF-Wert</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>SWOLF medio</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>SWOLF medio</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Média de pontuação SWOLF</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>平均SWOLF</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>平均 SWOLF</t>
+          <t>Cadence</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>WeightedMeanVerticalOscillation</t>
+          <t>WeightedMeanStrokeDistance</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Avg Vertical Oscillation</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Avg Vertical Oscillation</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Avg Vertical Oscillation</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Avg Vertical Oscillation</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Avg Vertical Oscillation</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Avg Vertical Oscillation</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>平均バウンス（上下動）</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>平均垂直摆幅</t>
+          <t>Stroke Distance</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>WeightedMeanVerticalRatio</t>
+          <t>WeightedMeanStrokes</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Avg Strokes</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Nombre moyen de mouvements</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Durchschnittliche Anzahl von Zügen</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Bracciate medie</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Promedio brazadas</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Média de braçadas</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>平均ストローク数</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>平均划数</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>WeightedMeanVerticalSpeed</t>
+          <t>WeightedMeanSwimCadence</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Avg Swim Cadence</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Cadence de nage moyenne</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Durchschnittliche Schwimmfrequenz</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Cadenza media</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Cadencia de nado media</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Média de cadência de natação</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>平均水泳ケイデンス</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>平均划频</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>__CalcAscentSpeed</t>
+          <t>WeightedMeanSwolf</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Avg SWOLF</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>SWOLF moyen</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Durchschnittlicher SWOLF-Wert</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>SWOLF medio</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>SWOLF medio</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Média de pontuação SWOLF</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>平均SWOLF</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>平均 SWOLF</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>__CalcDescentSpeed</t>
+          <t>WeightedMeanVerticalOscillation</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Avg Vertical Oscillation</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Avg Vertical Oscillation</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Avg Vertical Oscillation</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Avg Vertical Oscillation</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Avg Vertical Oscillation</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Avg Vertical Oscillation</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>平均バウンス（上下動）</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>平均垂直摆幅</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>__CalcElevationGradient</t>
+          <t>WeightedMeanVerticalRatio</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Vertical Ratio</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>__CalcEnergy</t>
+          <t>WeightedMeanVerticalSpeed</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>__CalcGainElevation</t>
+          <t>WeightedMomentaryEnergyExpenditure</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Momentary Energy Exp</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>__CalcLossElevation</t>
+          <t>WeightedRelativeRunningEconomy</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Relative Running Economy</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>__CalcMaxAscentSpeed</t>
+          <t>__CalcAscentSpeed</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>__CalcMaxDescentSpeed</t>
+          <t>__CalcDescentSpeed</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>__CalcMetabolicEfficiency</t>
+          <t>__CalcElevationGradient</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>__CalcNonZeroAvgPower</t>
+          <t>__CalcEnergy</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>__CalcNormalizedPower</t>
+          <t>__CalcGainElevation</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>__CalcRotationDevelopment</t>
+          <t>__CalcLossElevation</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>__CalcStrideLength</t>
+          <t>__CalcMaxAscentSpeed</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>__CalcVerticalSpeed</t>
+          <t>__CalcMaxDescentSpeed</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>__healthfat_free_mass</t>
+          <t>__CalcMetabolicEfficiency</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>__healthfat_mass_weight</t>
+          <t>__CalcNonZeroAvgPower</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>__healthfat_ratio</t>
+          <t>__CalcNormalizedPower</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>__healthheart_rate</t>
+          <t>__CalcRotationDevelopment</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>__healthnone</t>
+          <t>__CalcStrideLength</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>__healthweight</t>
+          <t>__CalcVerticalSpeed</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>backhands</t>
+          <t>__healthfat_free_mass</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>backhands_flat</t>
+          <t>__healthfat_mass_weight</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>backhands_lifted</t>
+          <t>__healthfat_ratio</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>backhands_sliced</t>
+          <t>__healthheart_rate</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>first_serves</t>
+          <t>__healthnone</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>first_serves_effect</t>
+          <t>__healthweight</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>first_serves_flat</t>
+          <t>backhands</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>forehands</t>
+          <t>backhands_flat</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>forehands_flat</t>
+          <t>backhands_lifted</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>forehands_lifted</t>
+          <t>backhands_sliced</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>forehands_sliced</t>
+          <t>first_serves</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>heatmap_all_center</t>
+          <t>first_serves_effect</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>heatmap_backhands_center</t>
+          <t>first_serves_flat</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>heatmap_forehands_center</t>
+          <t>forehands</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>heatmap_serves_center</t>
+          <t>forehands_flat</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>heatmap_smash_center</t>
+          <t>forehands_lifted</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>second_serves</t>
+          <t>forehands_sliced</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>second_serves_effect</t>
+          <t>heatmap_all_center</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>second_serves_flat</t>
+          <t>heatmap_backhands_center</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>serves</t>
+          <t>heatmap_forehands_center</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>serves_effect</t>
+          <t>heatmap_serves_center</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>serves_flat</t>
+          <t>heatmap_smash_center</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>shots</t>
+          <t>second_serves</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
+        <is>
+          <t>second_serves_effect</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>second_serves_flat</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>serves</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>serves_effect</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>serves_flat</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>shots</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>smash</t>
         </is>

--- a/ConnectStats/sqlite/out/fields.xlsx
+++ b/ConnectStats/sqlite/out/fields.xlsx
@@ -3272,6 +3272,11 @@
           <t>Beginnning Latitude</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Beginn Breitengrad</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>開始時緯度</t>
@@ -3294,6 +3299,11 @@
           <t>Beginning Longitude</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Beginn Längengrad</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>開始時経度</t>
@@ -3347,6 +3357,11 @@
           <t>BeginTimestamp</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Beginn Zeitstempel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3402,6 +3417,11 @@
           <t>EndLatitude</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ende Breitengrad</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3409,6 +3429,11 @@
           <t>EndLongitude</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Ende Längengrad</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3452,6 +3477,11 @@
           <t>EndTimestamp</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Ende Zeitstempel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3478,7 +3508,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Positiver Höhenunterschied</t>
+          <t>Höhengewinn</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3567,7 +3597,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Negativer Höhenunterschied</t>
+          <t>Höhenverlust</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3680,7 +3710,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Max. Trittfrequenz (Fahrrad)</t>
+          <t>Max. Trittfrequenz (Rad)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3715,6 +3745,11 @@
           <t>MaxCorrectedElevation</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Max. korrigierte Höhe</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3734,7 +3769,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Max Run Cadence</t>
+          <t>Max. Schrittfrequenz</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3840,7 +3875,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Max Run Cadence</t>
+          <t>Max. Schrittfrequenz</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3906,7 +3941,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Max. HF</t>
+          <t>Max. Puls</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3972,7 +4007,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Beste Pace</t>
+          <t>Max. Tempo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4012,6 +4047,11 @@
           <t>Max Power</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Max. Leistung</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4024,6 +4064,11 @@
           <t>Max Avg Power (20 min)</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Max. Leistung 20min</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4031,6 +4076,11 @@
           <t>MaxRelativeRunningEconomy</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Max. relative Laufökonomie</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4050,7 +4100,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Max. Schrittfrequenz (Laufen)</t>
+          <t>Max. Schrittfrequenz</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4156,7 +4206,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Maximale Schwimmfrequenz</t>
+          <t>Max. Zugfrequenz</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4210,6 +4260,11 @@
           <t>Max Vertical Ratio</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max. vertikales Verhältnis </t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4217,6 +4272,11 @@
           <t>MaxVerticalSpeed</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Max. vertikale Geschw.</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4283,6 +4343,11 @@
           <t>MinBikeCadence</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Min. Trittfrequenz </t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4290,6 +4355,11 @@
           <t>MinCorrectedElevation</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Min. korrigierter Anstieg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4427,6 +4497,11 @@
           <t>Min HR</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Min. Puls</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4453,6 +4528,11 @@
           <t>MinPace</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Min. Tempo</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4465,6 +4545,11 @@
           <t>Min Power</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Min. Leistung</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4479,6 +4564,11 @@
           <t>MinRunCadence</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Min. Schrittfrequenz</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4498,7 +4588,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Min. Geschwindigkeit</t>
+          <t>Min. Geschw.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4545,7 +4635,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mindestanzahl von Zügen</t>
+          <t>Min. Züge</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4808,7 +4898,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Elapsed Time</t>
+          <t>Absolvierte Zeit</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4890,6 +4980,11 @@
           <t>SumEnergyActive</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Aktivitätskalorien</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4916,6 +5011,11 @@
           <t>Intensity Factor (IF)</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Intensitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5327,7 +5427,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Training Effect</t>
+          <t>Trainingseffekt</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5367,6 +5467,11 @@
           <t>Training Stress Score (TSS)</t>
         </is>
       </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>TSS</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5379,6 +5484,11 @@
           <t>Threshold Power</t>
         </is>
       </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>FTP</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5457,7 +5567,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Ø Trittfrequenz (Fahrrad)</t>
+          <t>Ø Trittfrequenz (Rad)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5504,7 +5614,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Avg Run Cadence</t>
+          <t>Ø Schrittfrequenz</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5551,7 +5661,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Durchschnittliche Effizienz</t>
+          <t>Ø Effizienz</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5622,7 +5732,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Avg Run Cadence</t>
+          <t>Ø Schrittfrequenz</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5681,7 +5791,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Avg Ground Contact Time</t>
+          <t>Ø Bodenkontaktzeit</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5728,7 +5838,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Ø HF</t>
+          <t>Ø Puls</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5825,7 +5935,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Avg Moving Pace</t>
+          <t>Ø Bewegungstempo</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5872,7 +5982,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Avg Moving Speed</t>
+          <t>Ø Bewegungsgeschw.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5931,7 +6041,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Ø Pace</t>
+          <t>Ø Tempo</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6009,7 +6119,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Ø Schrittfrequenz (Laufen)</t>
+          <t>Ø Schrittfrequenz</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6056,7 +6166,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Ø Geschw</t>
+          <t>Ø Geschw.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6117,7 +6227,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Avg Stride Length</t>
+          <t>Ø Zuglänge</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6188,7 +6298,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Durchschnittliche Anzahl von Zügen</t>
+          <t>Ø Anzahl von Zügen</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6235,7 +6345,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Durchschnittliche Schwimmfrequenz</t>
+          <t>Ø Zugfrequenz</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6282,7 +6392,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Durchschnittlicher SWOLF-Wert</t>
+          <t>Ø SWOLF-Wert</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6329,7 +6439,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Avg Vertical Oscillation</t>
+          <t>Ø vertikale Bewegung</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8106,6 +8216,11 @@
           <t>SumStrokes</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>swimming</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
           <t>dynamics</t>
@@ -8121,18 +8236,13 @@
           <t>SumStrokes</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>swimming</t>
-        </is>
-      </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>swim</t>
+          <t>dynamics</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -9738,6 +9848,11 @@
           <t>Virtual Running</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Virtuelles Laufen</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9761,6 +9876,11 @@
           <t>Obstacle Running</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hindernislauf</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9784,6 +9904,11 @@
           <t>Indoor Running</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Indoor-Laufen</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10329,6 +10454,11 @@
           <t>Virtual Cycling</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Virtuelles Radfahren</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11577,7 +11707,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>TENNIS</t>
+          <t>Tennis</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -11628,6 +11758,11 @@
           <t>Floor Climbing</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Treppensteigen</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11651,6 +11786,11 @@
           <t>Stopwatch</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Stoppuhr</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11669,6 +11809,11 @@
       <c r="D44" t="n">
         <v>4</v>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Autorennen</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11687,6 +11832,11 @@
       <c r="D45" t="n">
         <v>4</v>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Atemübung</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12401,6 +12551,11 @@
       <c r="D58" t="n">
         <v>17</v>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Multi-Sport</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12431,7 +12586,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Steps</t>
+          <t>Schritte</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -12482,6 +12637,11 @@
           <t>Diving</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Tauchen</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12500,6 +12660,11 @@
       <c r="D61" t="n">
         <v>17</v>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Sicherheit</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12518,6 +12683,11 @@
       <c r="D62" t="n">
         <v>17</v>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Wintersport</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12942,6 +13112,11 @@
       <c r="D70" t="n">
         <v>29</v>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Pilates</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12965,6 +13140,11 @@
           <t>Yoga</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Yoga</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13278,6 +13458,11 @@
           <t>Single-Gas Dive</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Einzelgespräche-Tauchgang</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13301,6 +13486,11 @@
           <t>Multi-Gas Dive</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Multigas-Tauchgang</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13324,6 +13514,11 @@
           <t>Gauge Dive</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Tiefenmesser-Tauchgang</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13347,6 +13542,11 @@
           <t>Apnea</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Apnoetauchgang</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -13370,6 +13570,11 @@
           <t>Apnea Hunting</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Apnoejagd</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -13388,6 +13593,11 @@
       <c r="D82" t="n">
         <v>144</v>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>CCR-Tauchgang</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -13406,6 +13616,11 @@
       <c r="D83" t="n">
         <v>157</v>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Hilfe</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -13423,6 +13638,11 @@
       </c>
       <c r="D84" t="n">
         <v>157</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Unfall-Benachrichtigungen</t>
+        </is>
       </c>
     </row>
     <row r="85">

--- a/ConnectStats/sqlite/out/fields.xlsx
+++ b/ConnectStats/sqlite/out/fields.xlsx
@@ -3489,6 +3489,11 @@
           <t>GainCorrectedElevation</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Elevation Gain</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3543,6 +3548,11 @@
           <t>GainUncorrectedElevation</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Elevation Gain</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3578,6 +3588,11 @@
           <t>LossCorrectedElevation</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Elevation Loss</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3632,6 +3647,11 @@
           <t>LossUncorrectedElevation</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Elevation Loss</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3745,6 +3765,11 @@
           <t>MaxCorrectedElevation</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Max Elevation</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>Max. korrigierte Höhe</t>
@@ -3922,6 +3947,11 @@
           <t>MaxGroundContactTime</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Max Ground Contact Time</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3988,6 +4018,11 @@
           <t>MaxMomentaryEnergyExpenditure</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Max Energy Expenditure</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4076,6 +4111,11 @@
           <t>MaxRelativeRunningEconomy</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Max Running Economy</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>Max. relative Laufökonomie</t>
@@ -4241,6 +4281,11 @@
           <t>MaxUncorrectedElevation</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Max Elevation</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4248,6 +4293,11 @@
           <t>MaxVerticalOscillation</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Max Vertical Oscillation</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4272,6 +4322,11 @@
           <t>MaxVerticalSpeed</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Max Vertical Speed</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>Max. vertikale Geschw.</t>
@@ -4343,6 +4398,11 @@
           <t>MinBikeCadence</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Min Cadence</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t xml:space="preserve">Min. Trittfrequenz </t>
@@ -4355,6 +4415,11 @@
           <t>MinCorrectedElevation</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Min Elevation</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>Min. korrigierter Anstieg</t>
@@ -4485,6 +4550,11 @@
           <t>MinGroundContactTime</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Min Ground Contact Time</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4521,6 +4591,11 @@
           <t>MinMomentaryEnergyExpenditure</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Min Energy Expenditure</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4528,6 +4603,11 @@
           <t>MinPace</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Min Pace</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>Min. Tempo</t>
@@ -4557,6 +4637,11 @@
           <t>MinRelativeRunningEconomy</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Min Running Economy</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4564,6 +4649,11 @@
           <t>MinRunCadence</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Min Cadence</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>Min. Schrittfrequenz</t>
@@ -4717,6 +4807,11 @@
           <t>MinUncorrectedElevation</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Min Elevation</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4724,6 +4819,11 @@
           <t>MinVerticalOscillation</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Min Vertical Oscillation</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4743,6 +4843,11 @@
           <t>SumAnaerobicTrainingEffect</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Anaerobic Training Effect</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4992,6 +5097,11 @@
           <t>SumFloorsClimbed</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Floors Climbed</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4999,6 +5109,11 @@
           <t>SumFloorsDescended</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Floors Descended</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5873,6 +5988,11 @@
           <t>WeightedMeanLeftBalance</t>
         </is>
       </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Avg Left Balance</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5916,6 +6036,11 @@
           <t>WeightedMeanMomentaryEnergyExpenditure</t>
         </is>
       </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Avg Energy Expenditure</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6088,6 +6213,11 @@
           <t>WeightedMeanRelativeRunningEconomy</t>
         </is>
       </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Avg Running Economy</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6201,6 +6331,11 @@
           <t>WeightedMeanStanceTime</t>
         </is>
       </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Avg Stance Time</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6208,6 +6343,11 @@
           <t>WeightedMeanStanceTimePercent</t>
         </is>
       </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Avg Stance Percent</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6484,6 +6624,11 @@
       <c r="A149" t="inlineStr">
         <is>
           <t>WeightedMeanVerticalSpeed</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Avg Vertical Speed</t>
         </is>
       </c>
     </row>
@@ -8216,11 +8361,6 @@
           <t>SumStrokes</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>swimming</t>
-        </is>
-      </c>
       <c r="C92" t="inlineStr">
         <is>
           <t>dynamics</t>
@@ -8236,13 +8376,18 @@
           <t>SumStrokes</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>swimming</t>
+        </is>
+      </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>dynamics</t>
+          <t>swim</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">

--- a/ConnectStats/sqlite/out/fields.xlsx
+++ b/ConnectStats/sqlite/out/fields.xlsx
@@ -9017,7 +9017,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137">

--- a/ConnectStats/sqlite/out/fields.xlsx
+++ b/ConnectStats/sqlite/out/fields.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,6 +3192,94 @@
       <c r="D129" t="inlineStr">
         <is>
           <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>__CalcBestRollingWeightedMeanHeartRate</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>bpm</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>bpm</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>__CalcBestRollingWeightedMeanPace</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>minperkm</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>minpermile</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>__CalcBestRollingWeightedMeanPower</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>watt</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>watt</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>__CalcBestRollingWeightedMeanSpeed</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>kph</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>mph</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6666,299 +6754,347 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>__CalcDescentSpeed</t>
+          <t>__CalcBestRollingWeightedMeanHeartRate</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Critical Heart Rate</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>__CalcElevationGradient</t>
+          <t>__CalcBestRollingWeightedMeanPace</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Critical Pace</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>__CalcEnergy</t>
+          <t>__CalcBestRollingWeightedMeanPower</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Critical Power</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>__CalcGainElevation</t>
+          <t>__CalcBestRollingWeightedMeanSpeed</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Critical Speed</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>__CalcLossElevation</t>
+          <t>__CalcDescentSpeed</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>__CalcMaxAscentSpeed</t>
+          <t>__CalcElevationGradient</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>__CalcMaxDescentSpeed</t>
+          <t>__CalcEnergy</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>__CalcMetabolicEfficiency</t>
+          <t>__CalcGainElevation</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>__CalcNonZeroAvgPower</t>
+          <t>__CalcLossElevation</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>__CalcNormalizedPower</t>
+          <t>__CalcMaxAscentSpeed</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>__CalcRotationDevelopment</t>
+          <t>__CalcMaxDescentSpeed</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>__CalcStrideLength</t>
+          <t>__CalcMetabolicEfficiency</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>__CalcVerticalSpeed</t>
+          <t>__CalcNonZeroAvgPower</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>__healthfat_free_mass</t>
+          <t>__CalcNormalizedPower</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>__healthfat_mass_weight</t>
+          <t>__CalcRotationDevelopment</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>__healthfat_ratio</t>
+          <t>__CalcStrideLength</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>__healthheart_rate</t>
+          <t>__CalcVerticalSpeed</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>__healthnone</t>
+          <t>__healthfat_free_mass</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>__healthweight</t>
+          <t>__healthfat_mass_weight</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>backhands</t>
+          <t>__healthfat_ratio</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>backhands_flat</t>
+          <t>__healthheart_rate</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>backhands_lifted</t>
+          <t>__healthnone</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>backhands_sliced</t>
+          <t>__healthweight</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>first_serves</t>
+          <t>backhands</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>first_serves_effect</t>
+          <t>backhands_flat</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>first_serves_flat</t>
+          <t>backhands_lifted</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>forehands</t>
+          <t>backhands_sliced</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>forehands_flat</t>
+          <t>first_serves</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>forehands_lifted</t>
+          <t>first_serves_effect</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>forehands_sliced</t>
+          <t>first_serves_flat</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>heatmap_all_center</t>
+          <t>forehands</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>heatmap_backhands_center</t>
+          <t>forehands_flat</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>heatmap_forehands_center</t>
+          <t>forehands_lifted</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>heatmap_serves_center</t>
+          <t>forehands_sliced</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>heatmap_smash_center</t>
+          <t>heatmap_all_center</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>second_serves</t>
+          <t>heatmap_backhands_center</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>second_serves_effect</t>
+          <t>heatmap_forehands_center</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>second_serves_flat</t>
+          <t>heatmap_serves_center</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>serves</t>
+          <t>heatmap_smash_center</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>serves_effect</t>
+          <t>second_serves</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>serves_flat</t>
+          <t>second_serves_effect</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>shots</t>
+          <t>second_serves_flat</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
+        <is>
+          <t>serves</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>serves_effect</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>serves_flat</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>shots</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>smash</t>
         </is>

--- a/ConnectStats/sqlite/out/fields.xlsx
+++ b/ConnectStats/sqlite/out/fields.xlsx
@@ -6759,7 +6759,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Critical Heart Rate</t>
+          <t>Peak Heart Rate</t>
         </is>
       </c>
     </row>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Critical Pace</t>
+          <t>Peak Pace</t>
         </is>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Critical Power</t>
+          <t>Peak Power</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Critical Speed</t>
+          <t>Peak Speed</t>
         </is>
       </c>
     </row>

--- a/ConnectStats/sqlite/out/fields.xlsx
+++ b/ConnectStats/sqlite/out/fields.xlsx
@@ -744,12 +744,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>
@@ -788,12 +788,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>
@@ -810,12 +810,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>
@@ -942,12 +942,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>
@@ -1426,12 +1426,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>
@@ -1470,12 +1470,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>
@@ -2064,12 +2064,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>
@@ -2526,12 +2526,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>meterelevation</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>footelevation</t>
         </is>
       </c>
     </row>

--- a/ConnectStats/sqlite/out/fields.xlsx
+++ b/ConnectStats/sqlite/out/fields.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_fields_uom" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_fields_display" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_fields_order" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_activity_types" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gc_category_order" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="gc_fields_uom" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="gc_fields_display" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="gc_fields_order" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="gc_activity_types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="gc_category_order" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -57,6 +57,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -898,7 +966,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>celcius</t>
+          <t>celsius</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1382,7 +1450,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>celcius</t>
+          <t>celsius</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2438,7 +2506,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>celcius</t>
+          <t>celsius</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
